--- a/Userdetails.xlsx
+++ b/Userdetails.xlsx
@@ -12,27 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t>sulakshana</t>
+    <t>ewrd</t>
   </si>
   <si>
-    <t>sulakshanamadu31@gmail.com</t>
+    <t>fewfr</t>
   </si>
   <si>
-    <t>Ncc</t>
+    <t>fedcf</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>niro</t>
-  </si>
-  <si>
-    <t>niro@gmail.com</t>
-  </si>
-  <si>
-    <t>M</t>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -94,7 +85,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -102,19 +93,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Userdetails.xlsx
+++ b/Userdetails.xlsx
@@ -12,18 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
-    <t>ewrd</t>
+    <t>sulakshana</t>
   </si>
   <si>
-    <t>fewfr</t>
+    <t>sulaa</t>
   </si>
   <si>
-    <t>fedcf</t>
+    <t>ncc</t>
   </si>
   <si>
-    <t>d</t>
+    <t>m</t>
+  </si>
+  <si>
+    <t>niro</t>
+  </si>
+  <si>
+    <t>ssssss</t>
+  </si>
+  <si>
+    <t>dsc</t>
   </si>
 </sst>
 </file>
@@ -93,16 +102,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
